--- a/medicine/Enfance/Patrick_Bousquet/Patrick_Bousquet.xlsx
+++ b/medicine/Enfance/Patrick_Bousquet/Patrick_Bousquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Bousquet est un écrivain français né le 28 janvier 1949. Il a un homonyme auteur de romans policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Bousquet est un auteur de romans, de contes, et de poésies à destination des enfants, ainsi qu'un scénariste de Bande dessinée et un auteur de chansons (plus de 200 titres enregistrés. Il a été, entre autres, le parolier de Ringo, Linda de Suza, Annie Cordy, Isabelle Aubret, Philippe Clay, Marie Myriam, Éric Morena, David Martial, etc.)
 Passionné d’histoire et tout particulièrement des deux guerres mondiales, il axe ses principaux romans sur cette thématique, comme en témoigne la série Bleu narrant l’histoire d’un chien, au cœur de la Première Guerre mondiale ou encore Chance, racontant les aventures d’un chat devenu la mascotte de l’équipage d’une forteresse volante de l'US Air Force durant le second conflit mondial.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Scot et Patrick Bousquet
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Scot et Patrick Bousquet
 Félin pour l’autre (Préface de Robert de Laroche) (éditions les 3 Orangers)
 Même les souris ont du chagrin (Préface de Philippe Huet) (éditions les 3 Orangers)
 Les aventures de l’inspecteur Scot Lechat (éditions le Verger des Hespérides)
@@ -603,10 +622,47 @@
 Un croissant de lune dans un bol de café noir (éditions le Verger des Hespérides)
 Bol (éditions Averbode)
 Shootings (éditions les 3 Orangers)
-6 Contes de Joyeux Noël (éditions le Verger des Hespérides)
-Bandes dessinées
-Les nouvelles z'aventures d’Oscar et Mauricette
-avec Patrick Bousquet, Éditions Orep
+6 Contes de Joyeux Noël (éditions le Verger des Hespérides)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les nouvelles z'aventures d’Oscar et Mauricette</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>avec Patrick Bousquet, Éditions Orep
 Les Disparus de Verdun (nouvelle édition - entièrement redessiné) - 2016
 Les aventures d’Oscar et Mauricette (éditions Serpenoise)
 Tome 16 - La révolution est en Mars ! (dessin Hector) - 2013
@@ -629,20 +685,122 @@
 Les enquêtes de Loufock Scholmes (éditions Serpenoise)
 Le mystère des feuilles mortes (dessin Hector) - 2002
 Les aventures de Saint-Nigola (éditions Serpenoise)
-Enfer et contre tout! (dessin Hector) - 2009
-Livres d'histoire
-Comme une lettre à la mer... Le message de paix de Fiquelmont (dessin Hector) - 2016 (éditions OREP)
+Enfer et contre tout! (dessin Hector) - 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres d'histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Comme une lettre à la mer... Le message de paix de Fiquelmont (dessin Hector) - 2016 (éditions OREP)
 Le Lancaster de Marly (dessin Hector) - 2015 (éditions OREP)
 Pages de Gloire - 1914/1918 (dessin Hector) - 2014 (éditions Serpenoise)
 Héros du Jour J (dessin Hector) - 2006 (éditions OREP)
 La Lorraine sous la botte (dessin Hector) - 2005 (éditions Serpenoise)
 Verdun : de l'enfer à la gloire (dessin Hector) - 2004 (éditions Serpenoise)
-6 juin 1944 : objectif Normandie (dessin Hector) - 2003 (éditions Serpenoise)
-Sous le nom de Patrick Bousquet-Schneeweis
-Le chat Pirouette et la coccinelle (éditions du Pré du Plain)
-Le piano sur la plage (éditions les 3 Orangers)
-Contes, reportages et poésies parus dans des périodiques
-Toboggan (Milan Presse)
+6 juin 1944 : objectif Normandie (dessin Hector) - 2003 (éditions Serpenoise)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom de Patrick Bousquet-Schneeweis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le chat Pirouette et la coccinelle (éditions du Pré du Plain)
+Le piano sur la plage (éditions les 3 Orangers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bousquet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contes, reportages et poésies parus dans des périodiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Toboggan (Milan Presse)
 Toboggan Hors série (Milan Presse)
 Toupie (Milan Presse)
 Petites Mains (Milan Presse)
